--- a/validationTests/runVal/valCBO.xlsx
+++ b/validationTests/runVal/valCBO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannytoomey/Documents/Research/ADTask/Experiments/ADTaskPilot/validationTests/runVal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF711EC-7FD9-3F4A-9E9E-605F9A001BFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E8E3F-00B6-8040-B70F-5C24E6CDB760}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="24820" windowHeight="15000" xr2:uid="{C68B91D8-CC75-A448-80C6-9CEF10BFDD94}"/>
+    <workbookView minimized="1" xWindow="80" yWindow="460" windowWidth="24820" windowHeight="15000" xr2:uid="{C68B91D8-CC75-A448-80C6-9CEF10BFDD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <r>
+      <t xml:space="preserve">1  2   3   4   4   3   2   1   1   3   2   4   4   2   3   1       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF228B22"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>%determines single task resp order</t>
+    </r>
+  </si>
+  <si>
+    <t>                 2  3   4   1   3   2   1   4   3   2   4   1   2   3   1   4</t>
+  </si>
+  <si>
+    <t>                 3  4   1   2   2   1   4   3   2   4   1   3   3   1   4   2</t>
+  </si>
+  <si>
+    <t>                 4  1   2   3   1   4   3   2   4   1   3   2   1   4   2   3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF228B22"/>
+      <name val="Courier"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,75 +418,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE59EBCC-4D90-044D-AACC-33141C12719B}">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B6:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>B14+1</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:Q14" si="0">C14+1</f>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>B22+1</f>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:Q22" si="1">C22+1</f>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>